--- a/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200214.xlsx
+++ b/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200214.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B6CF0F-5624-46DE-9A17-1BD075155759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D6CF1B-13BA-4585-A818-44F45F67C887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1956" windowWidth="17280" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10763,8 +10763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D50"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -13803,7 +13803,9 @@
       </c>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
+      <c r="I50" s="19">
+        <v>1</v>
+      </c>
       <c r="J50" s="19">
         <v>12</v>
       </c>
